--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_03_beg.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_03_beg.xlsx
@@ -1168,7 +1168,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="폴리닉"]  라이타니엔 사람? 아니면 전에 말한 살카즈인가?
+    <t xml:space="preserve">[name="폴리닉"]  라이타니아 사람? 아니면 전에 말한 살카즈인가?
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_03_beg.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_03_beg.xlsx
@@ -888,7 +888,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  The call themselves... the “Mudrock Squad.”
+    <t xml:space="preserve">[name="Tatjana"]  The call themselves... the 'Mudrock Squad.'
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_03_beg.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_03_beg.xlsx
@@ -628,7 +628,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  An accident... At least, that’s what we decided at first, but...
+    <t xml:space="preserve">[name="Tatjana"]  An accident... At least, that's what we decided at first, but...
 </t>
   </si>
   <si>
@@ -636,7 +636,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  We couldn’t figure out where the fire started. The tent’s metal support frame melted, and the bodies...
+    <t xml:space="preserve">[name="Tatjana"]  We couldn't figure out where the fire started. The tent's metal support frame melted, and the bodies...
 </t>
   </si>
   <si>
@@ -644,15 +644,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  It’s fine. Continue.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  Judging from the remains, the victims couldn’t even leave the tent. There was no struggle. And of course, they were completely unrecognizable. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  I don’t think an ordinary fire could just incinerate Dr. Atro and her patients like that.
+    <t xml:space="preserve">[name="Folinic"]  It's fine. Continue.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  Judging from the remains, the victims couldn't even leave the tent. There was no struggle. And of course, they were completely unrecognizable. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  I don't think an ordinary fire could just incinerate Dr. Atro and her patients like that.
 </t>
   </si>
   <si>
@@ -672,7 +672,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  He was the only son of the Schultz. And my friend. He wasn’t Infected. He just went there to help, out of the kindness of his own heart.
+    <t xml:space="preserve">[name="Tatjana"]  He was the only son of the Schultz. And my friend. He wasn't Infected. He just went there to help, out of the kindness of his own heart.
 </t>
   </si>
   <si>
@@ -688,7 +688,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  Here... there was a lot of discontent here. Much joy, much pain. But it’s all gone now.
+    <t xml:space="preserve">[name="Suzuran"]  Here... there was a lot of discontent here. Much joy, much pain. But it's all gone now.
 </t>
   </si>
   <si>
@@ -696,11 +696,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  No. I’ve just seen this kind of thing so many times. Everyone wants to keep their feelings bottled up inside. But it’s not healthy.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  Maybe I’m wrong. But if you treat yourself like that, you’ll worry the people who care about you, no?
+    <t xml:space="preserve">[name="Suzuran"]  No. I've just seen this kind of thing so many times. Everyone wants to keep their feelings bottled up inside. But it's not healthy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  Maybe I'm wrong. But if you treat yourself like that, you'll worry the people who care about you, no?
 </t>
   </si>
   <si>
@@ -708,7 +708,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  You’re right. Thank you. I already knew that, in a way, but for now I can’t... I just can’t let it go.
+    <t xml:space="preserve">[name="Tatjana"]  You're right. Thank you. I already knew that, in a way, but for now I can't... I just can't let it go.
 </t>
   </si>
   <si>
@@ -716,7 +716,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Don’t. Don’t look at me, Lisa. I get it.
+    <t xml:space="preserve">[name="Folinic"]  Don't. Don't look at me, Lisa. I get it.
 </t>
   </si>
   <si>
@@ -724,11 +724,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  *Sigh*... Now, I’m sorry!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  Huh? What’s that about...?
+    <t xml:space="preserve">[name="Folinic"]  *Sigh*... Now, I'm sorry!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  Huh? What's that about...?
 </t>
   </si>
   <si>
@@ -736,15 +736,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Of course I know what it means to lose contact with an operator. Rhodes Island has said goodbye to so many. I just couldn’t get myself to believe it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  I... I let my emotions get the better of me. And I’m sorry.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  But we’re not the only ones to lose somebody to this act of murder.
+    <t xml:space="preserve">[name="Folinic"]  Of course I know what it means to lose contact with an operator. Rhodes Island has said goodbye to so many. I just couldn't get myself to believe it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  I... I let my emotions get the better of me. And I'm sorry.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  But we're not the only ones to lose somebody to this act of murder.
 </t>
   </si>
   <si>
@@ -756,7 +756,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  We can’t let them stay with Wolumonde. They’ll be buried in the wasteland outside the town. And when Wolumonde leaves, they’ll lose their hometown forever.
+    <t xml:space="preserve">[name="Tatjana"]  We can't let them stay with Wolumonde. They'll be buried in the wasteland outside the town. And when Wolumonde leaves, they'll lose their hometown forever.
 </t>
   </si>
   <si>
@@ -776,7 +776,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  When the Great Rift came, Wolumonde didn’t escape unscathed, and of course many merchants and travelers nearby got caught up in the Catastrophe.
+    <t xml:space="preserve">[name="Tatjana"]  When the Great Rift came, Wolumonde didn't escape unscathed, and of course many merchants and travelers nearby got caught up in the Catastrophe.
 </t>
   </si>
   <si>
@@ -792,19 +792,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  What about the Infected remains? Within minutes to hours of the cessation of vital signs, depending on the rate of Originium assimilation in the body, there is a risk of secondary spread. It’s very dangerous if not handled appropriately.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  Oh, right, well, the Schultz decided that because they were only lightly infected, and with the rapid incineration of tissue, there wasn’t much risk.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  Didn’t you say you had no Infected experts?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  Oh, Schultz Severin just said he was going off of experience, and couldn’t be absolutely sure.
+    <t xml:space="preserve">[name="Folinic"]  What about the Infected remains? Within minutes to hours of the cessation of vital signs, depending on the rate of Originium assimilation in the body, there is a risk of secondary spread. It's very dangerous if not handled appropriately.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  Oh, right, well, the Schultz decided that because they were only lightly infected, and with the rapid incineration of tissue, there wasn't much risk.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  Didn't you say you had no Infected experts?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  Oh, Schultz Severin just said he was going off of experience, and couldn't be absolutely sure.
 </t>
   </si>
   <si>
@@ -820,7 +820,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  Yes, of course. I’ll explain it to the Schultz. But most of the remains are charred so badly that we can’t tell who was who.
+    <t xml:space="preserve">[name="Tatjana"]  Yes, of course. I'll explain it to the Schultz. But most of the remains are charred so badly that we can't tell who was who.
 </t>
   </si>
   <si>
@@ -840,7 +840,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Wow... it’s Atro’s employee badge. It survived...
+    <t xml:space="preserve">[name="Folinic"]  Wow... it's Atro's employee badge. It survived...
 </t>
   </si>
   <si>
@@ -848,11 +848,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  She always complained it got in the way of her work. Isn’t that funny? Just wear it on your neck or your chest. How could it get in the way...?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  Let’s go. I want to see her...
+    <t xml:space="preserve">[name="Folinic"]  She always complained it got in the way of her work. Isn't that funny? Just wear it on your neck or your chest. How could it get in the way...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  Let's go. I want to see her...
 </t>
   </si>
   <si>
@@ -860,11 +860,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  It’s coming from the town!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  M-Miss Folinic! Someone’s coming!
+    <t xml:space="preserve">[name="Tatjana"]  It's coming from the town!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  M-Miss Folinic! Someone's coming!
 </t>
   </si>
   <si>
@@ -872,11 +872,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Armed Infected"]  That symbol. It’s... Rhodes Island...? When did you get here...?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  And with your outfit... you’re no ordinary Infected.
+    <t xml:space="preserve">[name="Armed Infected"]  That symbol. It's... Rhodes Island...? When did you get here...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  And with your outfit... you're no ordinary Infected.
 </t>
   </si>
   <si>
@@ -884,7 +884,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  They’re some armed Infected partisans who showed up outside the town recently. It looks like a group of Sarkaz make up the core, but they’ve taken in a lot of our local Infected.
+    <t xml:space="preserve">[name="Tatjana"]  They're some armed Infected partisans who showed up outside the town recently. It looks like a group of Sarkaz make up the core, but they've taken in a lot of our local Infected.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_03_beg.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_03_beg.xlsx
@@ -1168,7 +1168,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="폴리닉"]  라이타니아 사람? 아니면 전에 말한 살카즈인가?
+    <t xml:space="preserve">[name="폴리닉"]  라이타니엔 사람? 아니면 전에 말한 살카즈인가?
 </t>
   </si>
   <si>
